--- a/working/fritz 2006/seed.product.xlsx
+++ b/working/fritz 2006/seed.product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/fritz 2006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1079F3B-4653-1242-AEFA-ECC6EEDEC8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC01625-F13A-D64A-BD9F-F14512A7DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="2800" windowWidth="27240" windowHeight="16440" xr2:uid="{A1021E16-B125-5543-9B55-066B147DFF8E}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16300" xr2:uid="{A1021E16-B125-5543-9B55-066B147DFF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,16 +84,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,13 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22017E7C-6A43-814B-BB34-C7E6D1B7EE4F}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -459,7 +454,7 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
@@ -1158,24 +1153,6 @@
       <c r="G31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
